--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -97,134 +97,133 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>Must be 0 if working with Orchestrator queues. If &gt; 0, the robot will retry the same transaction which failed with a system exception. Must be an integer value.</t>
+  </si>
+  <si>
+    <t>Static part of logging message. Processed Transaction succesful.</t>
+  </si>
+  <si>
+    <t>Static part of logging message. Processed Transaction failed with business exception.</t>
+  </si>
+  <si>
+    <t>Static part of logging message. Processed Transaction failed with application exception.</t>
+  </si>
+  <si>
+    <t>Static part of logging message. Calling Get Transaction Data.</t>
+  </si>
+  <si>
+    <t>OrchestratorAssetFolder</t>
+  </si>
+  <si>
+    <t>Delay_short</t>
+  </si>
+  <si>
+    <t>Delay_Medium</t>
+  </si>
+  <si>
+    <t>Delay_Long</t>
+  </si>
+  <si>
+    <t>15000</t>
+  </si>
+  <si>
+    <t>60000</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>RetryInterval</t>
+  </si>
+  <si>
+    <t>00:00:05</t>
+  </si>
+  <si>
+    <t>Timeout_Short</t>
+  </si>
+  <si>
+    <t>Timeout_Medium</t>
+  </si>
+  <si>
+    <t>Timeout_Long</t>
+  </si>
+  <si>
+    <t>45000</t>
+  </si>
+  <si>
+    <t>Timeout_Max</t>
+  </si>
+  <si>
+    <t>9,00,000</t>
+  </si>
+  <si>
+    <t>C:\Users\indra\OneDrive\Desktop\IA.0165.InvoiceProcessing</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>Inputs</t>
+  </si>
+  <si>
+    <t>Report</t>
+  </si>
+  <si>
+    <t>Screenshots</t>
+  </si>
+  <si>
+    <t>AI.0165.BasePath</t>
+  </si>
+  <si>
+    <t>BasePath</t>
+  </si>
+  <si>
+    <t>AI.0165.ErrorFolderName</t>
+  </si>
+  <si>
+    <t>AI.0165.InputFolderName</t>
+  </si>
+  <si>
+    <t>AI.0165.ReportFolderName</t>
+  </si>
+  <si>
+    <t>AI.0165.ScreenshotsFolderName</t>
+  </si>
+  <si>
+    <t>ErrorFolderName</t>
+  </si>
+  <si>
+    <t>InputFolderName</t>
+  </si>
+  <si>
+    <t>ReportFolderName</t>
+  </si>
+  <si>
+    <t>ScreenshotsFolderName</t>
+  </si>
+  <si>
+    <t>IA.0165.InvoiceProcessing</t>
+  </si>
+  <si>
+    <t>https://ndz5tmva4xvzidx6cjg8qw-on.drv.tw/WWW.InvoiceProcessing.com/Index.html</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>CompletedFolderName</t>
+  </si>
+  <si>
+    <t>PortalURL</t>
+  </si>
+  <si>
+    <t>AI.0165.PortalURL</t>
+  </si>
+  <si>
+    <t>AI.0165.CompletedFolderName</t>
+  </si>
+  <si>
     <t>OrchestratorQueueName</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Must be 0 if working with Orchestrator queues. If &gt; 0, the robot will retry the same transaction which failed with a system exception. Must be an integer value.</t>
-  </si>
-  <si>
-    <t>Static part of logging message. Processed Transaction succesful.</t>
-  </si>
-  <si>
-    <t>Static part of logging message. Processed Transaction failed with business exception.</t>
-  </si>
-  <si>
-    <t>Static part of logging message. Processed Transaction failed with application exception.</t>
-  </si>
-  <si>
-    <t>Static part of logging message. Calling Get Transaction Data.</t>
-  </si>
-  <si>
-    <t>OrchestratorAssetFolder</t>
-  </si>
-  <si>
-    <t>Delay_short</t>
-  </si>
-  <si>
-    <t>Delay_Medium</t>
-  </si>
-  <si>
-    <t>Delay_Long</t>
-  </si>
-  <si>
-    <t>15000</t>
-  </si>
-  <si>
-    <t>60000</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>RetryInterval</t>
-  </si>
-  <si>
-    <t>00:00:05</t>
-  </si>
-  <si>
-    <t>Timeout_Short</t>
-  </si>
-  <si>
-    <t>Timeout_Medium</t>
-  </si>
-  <si>
-    <t>Timeout_Long</t>
-  </si>
-  <si>
-    <t>45000</t>
-  </si>
-  <si>
-    <t>Timeout_Max</t>
-  </si>
-  <si>
-    <t>9,00,000</t>
-  </si>
-  <si>
-    <t>C:\Users\indra\OneDrive\Desktop\IA.0165.InvoiceProcessing</t>
-  </si>
-  <si>
-    <t>Error</t>
-  </si>
-  <si>
-    <t>Inputs</t>
-  </si>
-  <si>
-    <t>Report</t>
-  </si>
-  <si>
-    <t>Screenshots</t>
-  </si>
-  <si>
-    <t>AI.0165.BasePath</t>
-  </si>
-  <si>
-    <t>BasePath</t>
-  </si>
-  <si>
-    <t>AI.0165.ErrorFolderName</t>
-  </si>
-  <si>
-    <t>AI.0165.InputFolderName</t>
-  </si>
-  <si>
-    <t>AI.0165.ReportFolderName</t>
-  </si>
-  <si>
-    <t>AI.0165.ScreenshotsFolderName</t>
-  </si>
-  <si>
-    <t>ErrorFolderName</t>
-  </si>
-  <si>
-    <t>InputFolderName</t>
-  </si>
-  <si>
-    <t>ReportFolderName</t>
-  </si>
-  <si>
-    <t>ScreenshotsFolderName</t>
-  </si>
-  <si>
-    <t>IA.0165.InvoiceProcessing</t>
-  </si>
-  <si>
-    <t>https://ndz5tmva4xvzidx6cjg8qw-on.drv.tw/WWW.InvoiceProcessing.com/Index.html</t>
-  </si>
-  <si>
-    <t>Completed</t>
-  </si>
-  <si>
-    <t>CompletedFolderName</t>
-  </si>
-  <si>
-    <t>PortalURL</t>
-  </si>
-  <si>
-    <t>AI.0165.PortalURL</t>
-  </si>
-  <si>
-    <t>AI.0165.CompletedFolderName</t>
   </si>
 </sst>
 </file>
@@ -613,8 +612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -661,10 +660,10 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
@@ -1737,18 +1736,18 @@
         <v>5</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.4">
       <c r="A3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="C3" s="3"/>
     </row>
@@ -1773,7 +1772,7 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
@@ -1795,7 +1794,7 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
@@ -1806,7 +1805,7 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
@@ -1817,13 +1816,13 @@
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" s="6">
         <v>2000</v>
@@ -1831,51 +1830,51 @@
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="17" spans="1:2" ht="14.25" customHeight="1">
       <c r="A17" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="14.25" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="14.25" customHeight="1">
       <c r="A19" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="14.25" customHeight="1">
       <c r="A20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>43</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="14.25" customHeight="1"/>
@@ -2857,7 +2856,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -2877,7 +2876,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
@@ -2907,79 +2906,79 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="D8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -612,16 +612,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.5546875" customWidth="1"/>
+    <col min="1" max="1" width="43.5703125" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="81.44140625" customWidth="1"/>
-    <col min="4" max="26" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="81.42578125" customWidth="1"/>
+    <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -670,7 +670,7 @@
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="4" spans="1:26" ht="28.8">
+    <row r="4" spans="1:26" ht="30">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -1689,12 +1689,12 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="51" style="6" customWidth="1"/>
-    <col min="3" max="3" width="75.44140625" customWidth="1"/>
-    <col min="4" max="26" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="75.42578125" customWidth="1"/>
+    <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -1731,7 +1731,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="28.8">
+    <row r="2" spans="1:26" ht="30">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1742,7 +1742,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="14.4">
+    <row r="3" spans="1:26">
       <c r="A3" s="2" t="s">
         <v>36</v>
       </c>
@@ -2856,16 +2856,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.88671875" customWidth="1"/>
-    <col min="2" max="2" width="30.109375" customWidth="1"/>
-    <col min="3" max="3" width="60.33203125" customWidth="1"/>
-    <col min="4" max="26" width="65.44140625" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" customWidth="1"/>
+    <col min="3" max="3" width="60.28515625" customWidth="1"/>
+    <col min="4" max="26" width="65.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="72">
   <si>
     <t>Name</t>
   </si>
@@ -224,6 +224,21 @@
   </si>
   <si>
     <t>OrchestratorQueueName</t>
+  </si>
+  <si>
+    <t>InvoiceProcessingReport_{0}.xlsx</t>
+  </si>
+  <si>
+    <t>ReportName</t>
+  </si>
+  <si>
+    <t>Templates\InvoiceProcessingReport_{0}.xlsx</t>
+  </si>
+  <si>
+    <t>ReportTemplatePath</t>
+  </si>
+  <si>
+    <t>ReportFullPath</t>
   </si>
 </sst>
 </file>
@@ -612,16 +627,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.5703125" customWidth="1"/>
+    <col min="1" max="1" width="43.5546875" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="81.42578125" customWidth="1"/>
-    <col min="4" max="26" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="81.44140625" customWidth="1"/>
+    <col min="4" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -670,7 +685,7 @@
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="4" spans="1:26" ht="30">
+    <row r="4" spans="1:26" ht="28.8">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -682,9 +697,27 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="6" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A8" t="s">
+        <v>71</v>
+      </c>
+    </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1689,12 +1722,12 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="51" style="6" customWidth="1"/>
-    <col min="3" max="3" width="75.42578125" customWidth="1"/>
-    <col min="4" max="26" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="75.44140625" customWidth="1"/>
+    <col min="4" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -1731,7 +1764,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="30">
+    <row r="2" spans="1:26" ht="28.8">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1742,7 +1775,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" ht="14.4">
       <c r="A3" s="2" t="s">
         <v>36</v>
       </c>
@@ -2856,16 +2889,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" customWidth="1"/>
-    <col min="2" max="2" width="30.140625" customWidth="1"/>
-    <col min="3" max="3" width="60.28515625" customWidth="1"/>
-    <col min="4" max="26" width="65.42578125" customWidth="1"/>
+    <col min="1" max="1" width="31.88671875" customWidth="1"/>
+    <col min="2" max="2" width="30.109375" customWidth="1"/>
+    <col min="3" max="3" width="60.33203125" customWidth="1"/>
+    <col min="4" max="26" width="65.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
